--- a/VALOR/Exportación por Lugar de Salida 2015 - Mensual - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2015 - Mensual - Editado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\Exportaciones FOB\Editado 2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF05C1-D809-4386-A9C5-02AD5595A563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2249F-948C-405D-BFD9-9045D6CF15F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,15 +562,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -595,54 +586,20 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -973,13 +930,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -992,6 +942,56 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1008,22 +1008,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D244E62E-294B-4476-BFCE-010ED64C51D5}" name="exp_salida_2015" displayName="exp_salida_2015" ref="A1:M59" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D244E62E-294B-4476-BFCE-010ED64C51D5}" name="exp_salida_valor_2015" displayName="exp_salida_valor_2015" ref="A1:M59" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M59" xr:uid="{44D9D204-F9A5-4063-9288-85B2B89002EF}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{676ED925-4B71-412D-999A-A9F6C033371B}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{868FB5B0-F01D-4996-946D-09D99080C206}" name="Enero - 2015" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B636F216-937D-461E-A1D5-73149123069E}" name="Febrero - 2015" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{54B38840-677E-43C8-8B20-80B0EB063542}" name="Marzo - 2015" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{9089508F-5981-4F09-8A89-1E8661FA1995}" name="Abril - 2015" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{6C62D373-9C87-488B-BBD3-84F865AE2681}" name="Mayo - 2015" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D59BE3E8-AB2F-431D-9A9D-F188DBB8F376}" name="Junio - 2015" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{F80FDF79-5702-4F6C-8801-65ACC723697E}" name="Julio - 2015" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{D0D44EF4-11C6-4000-B53B-112EA19A2F71}" name="Agosto - 2015" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{BDC130CA-7AF0-4A8D-BB1E-C64D8503FBB8}" name="Septiembre - 2015" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{751AEB00-BE39-4F09-AA9A-B8B202F551D4}" name="Octubre - 2015" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{FDE89428-C6A2-4C5B-A611-CC0AC2311483}" name="Noviembre - 2015" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{ECB107B9-6FAD-4290-94F4-B393EFD4A19F}" name="Diciembre - 2015" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{676ED925-4B71-412D-999A-A9F6C033371B}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{868FB5B0-F01D-4996-946D-09D99080C206}" name="Enero - 2015" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{B636F216-937D-461E-A1D5-73149123069E}" name="Febrero - 2015" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{54B38840-677E-43C8-8B20-80B0EB063542}" name="Marzo - 2015" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{9089508F-5981-4F09-8A89-1E8661FA1995}" name="Abril - 2015" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{6C62D373-9C87-488B-BBD3-84F865AE2681}" name="Mayo - 2015" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D59BE3E8-AB2F-431D-9A9D-F188DBB8F376}" name="Junio - 2015" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{F80FDF79-5702-4F6C-8801-65ACC723697E}" name="Julio - 2015" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{D0D44EF4-11C6-4000-B53B-112EA19A2F71}" name="Agosto - 2015" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{BDC130CA-7AF0-4A8D-BB1E-C64D8503FBB8}" name="Septiembre - 2015" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{751AEB00-BE39-4F09-AA9A-B8B202F551D4}" name="Octubre - 2015" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{FDE89428-C6A2-4C5B-A611-CC0AC2311483}" name="Noviembre - 2015" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{ECB107B9-6FAD-4290-94F4-B393EFD4A19F}" name="Diciembre - 2015" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,41 +1323,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -4019,9 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108E3FCB-D215-4692-B638-88F1F6DE0F34}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4042,48 +4040,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16">
@@ -4119,12 +4117,12 @@
       <c r="L2" s="16">
         <v>315762033.47000027</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="18">
         <v>323503065.12000006</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="16">
@@ -4160,12 +4158,12 @@
       <c r="L3" s="16">
         <v>136213.83000000002</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="18">
         <v>320261.76000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="16">
@@ -4201,12 +4199,12 @@
       <c r="L4" s="16">
         <v>0</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="18">
         <v>26137.64</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="16">
@@ -4242,12 +4240,12 @@
       <c r="L5" s="16">
         <v>0</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="16">
@@ -4283,12 +4281,12 @@
       <c r="L6" s="16">
         <v>361030.5400000001</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <v>577702.94000000006</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="16">
@@ -4324,12 +4322,12 @@
       <c r="L7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16">
@@ -4365,12 +4363,12 @@
       <c r="L8" s="16">
         <v>0</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="16">
@@ -4406,12 +4404,12 @@
       <c r="L9" s="16">
         <v>235597105.56999996</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>389438679.28999996</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="16">
@@ -4447,12 +4445,12 @@
       <c r="L10" s="16">
         <v>23149973.859999996</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="18">
         <v>22393661.199999996</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="16">
@@ -4488,12 +4486,12 @@
       <c r="L11" s="16">
         <v>0</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>684.76</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="16">
@@ -4529,12 +4527,12 @@
       <c r="L12" s="16">
         <v>5464052.0099999998</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>8561210.0600000005</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="16">
@@ -4570,12 +4568,12 @@
       <c r="L13" s="16">
         <v>3318441.1399999997</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>10184862.529999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="16">
@@ -4611,12 +4609,12 @@
       <c r="L14" s="16">
         <v>75814175.730000004</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>127349809.79000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="16">
@@ -4652,12 +4650,12 @@
       <c r="L15" s="16">
         <v>229865434.42000002</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>63092558.339999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="16">
@@ -4693,12 +4691,12 @@
       <c r="L16" s="16">
         <v>15686831.15</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>15666146.190000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="16">
@@ -4734,12 +4732,12 @@
       <c r="L17" s="16">
         <v>0</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>3177921.11</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="16">
@@ -4775,12 +4773,12 @@
       <c r="L18" s="16">
         <v>10556815.130000001</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="18">
         <v>7738771.6299999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="16">
@@ -4816,12 +4814,12 @@
       <c r="L19" s="16">
         <v>0</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="16">
@@ -4857,12 +4855,12 @@
       <c r="L20" s="16">
         <v>0</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="16">
@@ -4898,12 +4896,12 @@
       <c r="L21" s="16">
         <v>20992249.780000016</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="18">
         <v>20989496.670000013</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="16">
@@ -4939,12 +4937,12 @@
       <c r="L22" s="16">
         <v>3410644.6599999997</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="18">
         <v>3338261.2699999996</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="16">
@@ -4980,12 +4978,12 @@
       <c r="L23" s="16">
         <v>24026690.48</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="18">
         <v>105633915.78</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="16">
@@ -5021,12 +5019,12 @@
       <c r="L24" s="16">
         <v>205179422.94999984</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>203821451.57999998</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="16">
@@ -5062,12 +5060,12 @@
       <c r="L25" s="16">
         <v>5955103.3699999992</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="16">
@@ -5103,12 +5101,12 @@
       <c r="L26" s="16">
         <v>0</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="16">
@@ -5144,12 +5142,12 @@
       <c r="L27" s="16">
         <v>0</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="18">
         <v>5534760.3700000001</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="16">
@@ -5185,12 +5183,12 @@
       <c r="L28" s="16">
         <v>18655710.48</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="18">
         <v>52975948.199999996</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="16">
@@ -5226,12 +5224,12 @@
       <c r="L29" s="16">
         <v>1275586.9000000001</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="18">
         <v>3154643.4099999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="16">
@@ -5267,12 +5265,12 @@
       <c r="L30" s="16">
         <v>72344658.729999989</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="18">
         <v>77116756.450000003</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="16">
@@ -5308,12 +5306,12 @@
       <c r="L31" s="16">
         <v>0</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="16">
@@ -5349,12 +5347,12 @@
       <c r="L32" s="16">
         <v>273590202.30999988</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="18">
         <v>242754279.7100001</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="16">
@@ -5390,12 +5388,12 @@
       <c r="L33" s="16">
         <v>130912637.21999976</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="18">
         <v>123522222.47000003</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="16">
@@ -5431,12 +5429,12 @@
       <c r="L34" s="16">
         <v>119061044.42999999</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="18">
         <v>154779057.18000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="16">
@@ -5472,12 +5470,12 @@
       <c r="L35" s="16">
         <v>3627.03</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="18">
         <v>1072.83</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="16">
@@ -5513,12 +5511,12 @@
       <c r="L36" s="16">
         <v>69604.899999999994</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="18">
         <v>45799.76</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="16">
@@ -5554,12 +5552,12 @@
       <c r="L37" s="16">
         <v>65825191.890000001</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="18">
         <v>48865115.350000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="16">
@@ -5595,12 +5593,12 @@
       <c r="L38" s="16">
         <v>3222390.3899999997</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="18">
         <v>1887255.3</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="16">
@@ -5636,12 +5634,12 @@
       <c r="L39" s="16">
         <v>0</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="16">
@@ -5677,12 +5675,12 @@
       <c r="L40" s="16">
         <v>4650569.2500000009</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="18">
         <v>3077215.7099999995</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="16">
@@ -5718,12 +5716,12 @@
       <c r="L41" s="16">
         <v>6348619.2000000002</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="18">
         <v>5157511.8800000018</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="16">
@@ -5759,12 +5757,12 @@
       <c r="L42" s="16">
         <v>82667683.020000011</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M42" s="18">
         <v>177458346.35999998</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="16">
@@ -5800,12 +5798,12 @@
       <c r="L43" s="16">
         <v>17830328.850000001</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="18">
         <v>11871368.1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="16">
@@ -5841,12 +5839,12 @@
       <c r="L44" s="16">
         <v>14378.08</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M44" s="18">
         <v>3992.87</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="16">
@@ -5882,12 +5880,12 @@
       <c r="L45" s="16">
         <v>24416463.269999996</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="18">
         <v>28307044.68</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="16">
@@ -5923,12 +5921,12 @@
       <c r="L46" s="16">
         <v>828419337.05999994</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="18">
         <v>790138312.29999995</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="16">
@@ -5964,12 +5962,12 @@
       <c r="L47" s="16">
         <v>510284.56999999995</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="18">
         <v>594441.45000000007</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="16">
@@ -6005,12 +6003,12 @@
       <c r="L48" s="16">
         <v>3939837.9599999995</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M48" s="18">
         <v>6272470.3099999987</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B49" s="16">
@@ -6046,12 +6044,12 @@
       <c r="L49" s="16">
         <v>972774.38</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M49" s="18">
         <v>13633459.790000001</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="16">
@@ -6087,12 +6085,12 @@
       <c r="L50" s="16">
         <v>630382919.42999971</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M50" s="18">
         <v>659515523.97999907</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="16">
@@ -6128,12 +6126,12 @@
       <c r="L51" s="16">
         <v>0</v>
       </c>
-      <c r="M51" s="21">
+      <c r="M51" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="16">
@@ -6169,12 +6167,12 @@
       <c r="L52" s="16">
         <v>196917.28</v>
       </c>
-      <c r="M52" s="21">
+      <c r="M52" s="18">
         <v>19796</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="16">
@@ -6210,12 +6208,12 @@
       <c r="L53" s="16">
         <v>1056.8599999999999</v>
       </c>
-      <c r="M53" s="21">
+      <c r="M53" s="18">
         <v>930689.73</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="16">
@@ -6251,12 +6249,12 @@
       <c r="L54" s="16">
         <v>227460592.76000008</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M54" s="18">
         <v>227195022.0500001</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B55" s="16">
@@ -6292,12 +6290,12 @@
       <c r="L55" s="16">
         <v>650072.56999999995</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M55" s="18">
         <v>486827.52999999997</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="16">
@@ -6333,12 +6331,12 @@
       <c r="L56" s="16">
         <v>20023961.830000002</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M56" s="18">
         <v>77990946.170000002</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="16">
@@ -6374,12 +6372,12 @@
       <c r="L57" s="16">
         <v>476235702.65999901</v>
       </c>
-      <c r="M57" s="21">
+      <c r="M57" s="18">
         <v>670228748.6700002</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B58" s="16">
@@ -6415,48 +6413,48 @@
       <c r="L58" s="16">
         <v>113252495.97999997</v>
       </c>
-      <c r="M58" s="21">
+      <c r="M58" s="18">
         <v>73140452.290000007</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="25">
         <v>69932409.049999997</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="25">
         <v>40651778.719999976</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="25">
         <v>48260299.579999976</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="25">
         <v>59577703.430000007</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="25">
         <v>38812706.960000023</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="25">
         <v>56112330.499999985</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="25">
         <v>60628920.519999966</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="25">
         <v>48300983.329999998</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="25">
         <v>44976696.529999979</v>
       </c>
-      <c r="K59" s="28">
+      <c r="K59" s="25">
         <v>45914561.75</v>
       </c>
-      <c r="L59" s="28">
+      <c r="L59" s="25">
         <v>69589253.599999979</v>
       </c>
-      <c r="M59" s="29">
+      <c r="M59" s="26">
         <v>56533757.210000008</v>
       </c>
     </row>
